--- a/Practical Exam 1/Output.xlsx
+++ b/Practical Exam 1/Output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed.elamri\Desktop\RPA Formation CGI\Certification\Mohamed\UiPath-CertificationExam\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed.elamri\Desktop\RPA Formation CGI\Certification\Examen Final\UiPath-CertificationExam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,42 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
-  <si>
-    <t>Star Software</t>
-  </si>
-  <si>
-    <t>RO892123</t>
-  </si>
-  <si>
-    <t>Aleea Rozelor 84</t>
-  </si>
-  <si>
-    <t>Iasi</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Godmother Catering</t>
-  </si>
-  <si>
-    <t>RO123456</t>
-  </si>
-  <si>
-    <t>Strada Flamanda 45</t>
-  </si>
-  <si>
-    <t>Bucuresti</t>
-  </si>
-  <si>
-    <t>Office Supplies</t>
-  </si>
-  <si>
-    <t>RO125678</t>
-  </si>
-  <si>
-    <t>Bulevardul Papetariei 57</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Tax ID</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Microtronic Enterprise</t>
+  </si>
+  <si>
+    <t>IT213456</t>
+  </si>
+  <si>
+    <t>Via Alta 32</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Moretronic Intelligence</t>
+  </si>
+  <si>
+    <t>DE987564</t>
+  </si>
+  <si>
+    <t>Bauhaus Strasse 21</t>
+  </si>
+  <si>
+    <t>Munchen</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
   <si>
     <t>Purple Store</t>
@@ -75,97 +84,49 @@
     <t>Berlin</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Green Restaurant</t>
-  </si>
-  <si>
-    <t>RO212121</t>
-  </si>
-  <si>
-    <t>Strada Verde 67</t>
-  </si>
-  <si>
-    <t>Copiers and More</t>
-  </si>
-  <si>
-    <t>RO874231</t>
-  </si>
-  <si>
-    <t>Strada Copiatoarelor 33</t>
-  </si>
-  <si>
-    <t>Brasov</t>
-  </si>
-  <si>
-    <t>Clipboard Papers</t>
-  </si>
-  <si>
-    <t>RO657483</t>
-  </si>
-  <si>
-    <t>Strada Agrafei 67</t>
-  </si>
-  <si>
-    <t>Limited Adventure</t>
-  </si>
-  <si>
-    <t>FR121212</t>
-  </si>
-  <si>
-    <t>Avenue Marcheariere 18</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Softix Providers</t>
-  </si>
-  <si>
-    <t>FR065748</t>
-  </si>
-  <si>
-    <t>Rue Haute 32</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Telephone Systems</t>
-  </si>
-  <si>
-    <t>RO874232</t>
-  </si>
-  <si>
-    <t>Intrarea Telefoanelor 112</t>
-  </si>
-  <si>
-    <t>Maxitronic Limited</t>
-  </si>
-  <si>
-    <t>DE767565</t>
-  </si>
-  <si>
-    <t>Bingauer Strasse 45</t>
+    <t>IT Works</t>
+  </si>
+  <si>
+    <t>IT231232</t>
+  </si>
+  <si>
+    <t>Via Prossima 12</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Technology Lake</t>
+  </si>
+  <si>
+    <t>DE763212</t>
+  </si>
+  <si>
+    <t>Hauptbahnhoff Strasse 21</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>In Advantage Technologies</t>
+  </si>
+  <si>
+    <t>IT754893</t>
+  </si>
+  <si>
+    <t>Via del Colosseo</t>
+  </si>
+  <si>
+    <t>Volga Rivers</t>
+  </si>
+  <si>
+    <t>DE325476</t>
+  </si>
+  <si>
+    <t>Hoch Strasse 12</t>
   </si>
   <si>
     <t>Koln</t>
-  </si>
-  <si>
-    <t>Moretronic Intelligence</t>
-  </si>
-  <si>
-    <t>DE987564</t>
-  </si>
-  <si>
-    <t>Bauhaus Strasse 21</t>
-  </si>
-  <si>
-    <t>Munchen</t>
   </si>
 </sst>
 </file>
@@ -483,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,177 +481,109 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
